--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -55,126 +55,123 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>daughter</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>nice</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>years</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>tea</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pan</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
@@ -187,49 +184,46 @@
     <t>little</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>every</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -593,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4108527131782946</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -680,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -704,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -712,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3434343434343434</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -730,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8828125</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -754,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -762,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1945945945945946</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -804,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -812,13 +806,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8405572755417957</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>543</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>543</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +832,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7792207792207793</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +858,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7359307359307359</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +884,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.726027397260274</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -908,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -916,13 +910,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.711864406779661</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L10">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -942,13 +936,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6914285714285714</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L11">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -960,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -968,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -986,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -994,13 +988,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.658908507223114</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L13">
-        <v>821</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>821</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>425</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1020,13 +1014,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6428571428571429</v>
+        <v>0.658908507223114</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>821</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>821</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1038,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1046,13 +1040,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.625</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1064,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1072,13 +1066,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1090,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1098,13 +1092,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6068376068376068</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1116,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1124,13 +1118,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5808383233532934</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L18">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1150,13 +1144,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5614035087719298</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1168,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1176,13 +1170,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1202,13 +1196,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5492957746478874</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1220,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1228,13 +1222,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5413533834586466</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L22">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1246,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1254,13 +1248,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5230769230769231</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1280,13 +1274,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.4819277108433735</v>
+        <v>0.515625</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1298,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1306,13 +1300,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.4603174603174603</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1324,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1332,13 +1326,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4578313253012048</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L26">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M26">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1350,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1358,13 +1352,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4264705882352941</v>
+        <v>0.424124513618677</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="M27">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1376,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>234</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1384,13 +1378,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.42</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1402,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1410,13 +1404,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.3947368421052632</v>
+        <v>0.41</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1428,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1436,13 +1430,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.3852140077821012</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="L30">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1454,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1462,13 +1456,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3779904306220095</v>
+        <v>0.3960396039603961</v>
       </c>
       <c r="L31">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1480,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>130</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1488,13 +1482,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3703703703703703</v>
+        <v>0.389041095890411</v>
       </c>
       <c r="L32">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="M32">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1503,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1514,13 +1508,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3377483443708609</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="L33">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1532,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1540,13 +1534,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3283100107642626</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L34">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1558,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>624</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1566,13 +1560,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3233082706766917</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1584,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1592,13 +1586,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3093525179856115</v>
+        <v>0.3304628632938644</v>
       </c>
       <c r="L36">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="M36">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1610,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>96</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1618,13 +1612,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3006622516556292</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L37">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="M37">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1636,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>528</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1644,13 +1638,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2972972972972973</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1662,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1670,13 +1664,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2871287128712871</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1688,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1696,13 +1690,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2777777777777778</v>
+        <v>0.2915360501567398</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1714,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1722,13 +1716,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2727272727272727</v>
+        <v>0.2754966887417218</v>
       </c>
       <c r="L41">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="M41">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1740,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>232</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1748,25 +1742,25 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2672634271099744</v>
+        <v>0.258974358974359</v>
       </c>
       <c r="L42">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M42">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1774,13 +1768,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2483221476510067</v>
+        <v>0.2092457420924574</v>
       </c>
       <c r="L43">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1792,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>112</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1800,25 +1794,25 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2073170731707317</v>
+        <v>0.2092391304347826</v>
       </c>
       <c r="L44">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M44">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1826,25 +1820,25 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2038043478260869</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="L45">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="M45">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>293</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1852,13 +1846,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1995614035087719</v>
+        <v>0.1993127147766323</v>
       </c>
       <c r="L46">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="M46">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1870,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>365</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1878,25 +1872,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1862068965517241</v>
+        <v>0.1958997722095672</v>
       </c>
       <c r="L47">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="M47">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>236</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1904,13 +1898,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1858974358974359</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1922,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1930,25 +1924,25 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1845102505694761</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L49">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>358</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1956,13 +1950,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1768292682926829</v>
+        <v>0.1789976133651551</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1974,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>135</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1982,25 +1976,25 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1729957805907173</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M51">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N51">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2008,13 +2002,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1660516605166052</v>
+        <v>0.1448087431693989</v>
       </c>
       <c r="L52">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M52">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2026,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>226</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2034,13 +2028,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.162962962962963</v>
+        <v>0.1439114391143911</v>
       </c>
       <c r="L53">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2052,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2060,25 +2054,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1486810551558753</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L54">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>355</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2086,25 +2080,25 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.110632183908046</v>
+        <v>0.1235632183908046</v>
       </c>
       <c r="L55">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M55">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2112,25 +2106,25 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1074766355140187</v>
+        <v>0.1116322701688555</v>
       </c>
       <c r="L56">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M56">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2138,25 +2132,25 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1010928961748634</v>
+        <v>0.08948740225890529</v>
       </c>
       <c r="L57">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M57">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>329</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2164,25 +2158,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.09392265193370165</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="L58">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N58">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O58">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2190,25 +2184,25 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.08883248730964467</v>
+        <v>0.07751937984496124</v>
       </c>
       <c r="L59">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>359</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2216,25 +2210,25 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.08282476024411509</v>
+        <v>0.06642066420664207</v>
       </c>
       <c r="L60">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N60">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1052</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2242,77 +2236,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.07037037037037037</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="L61">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M61">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="N61">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="O61">
-        <v>0.05000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K62">
-        <v>0.06936416184971098</v>
-      </c>
-      <c r="L62">
-        <v>36</v>
-      </c>
-      <c r="M62">
-        <v>39</v>
-      </c>
-      <c r="N62">
-        <v>0.92</v>
-      </c>
-      <c r="O62">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K63">
-        <v>0.04617414248021108</v>
-      </c>
-      <c r="L63">
-        <v>35</v>
-      </c>
-      <c r="M63">
-        <v>44</v>
-      </c>
-      <c r="N63">
-        <v>0.8</v>
-      </c>
-      <c r="O63">
-        <v>0.2</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
